--- a/Modern Magic World/Kids on Shrooms High School Classes.xlsx
+++ b/Modern Magic World/Kids on Shrooms High School Classes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\codst\OneDrive\Desktop\Dnd Stuff\dnd-files\Modern Magic World\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A20CF0D-F0CE-452E-9BE7-55870FC1BFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6978F31-6043-4433-A398-2F2576018CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C618A33B-8029-43B7-BAE3-13A87A5F15F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="556" xr2:uid="{C618A33B-8029-43B7-BAE3-13A87A5F15F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="166">
   <si>
     <t>Class Name</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Teacher</t>
   </si>
   <si>
-    <t>English 1</t>
-  </si>
-  <si>
     <t>Pre-Algebra</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>Geometry</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>Math</t>
   </si>
   <si>
@@ -86,21 +80,6 @@
     <t>Times</t>
   </si>
   <si>
-    <t>English 2</t>
-  </si>
-  <si>
-    <t>English 3</t>
-  </si>
-  <si>
-    <t>English 4</t>
-  </si>
-  <si>
-    <t>Advanced English Language</t>
-  </si>
-  <si>
-    <t>Advanced English Literature</t>
-  </si>
-  <si>
     <t>Algebra 2</t>
   </si>
   <si>
@@ -113,12 +92,6 @@
     <t>Advanced Statistics</t>
   </si>
   <si>
-    <t>Advanced Calculus 1</t>
-  </si>
-  <si>
-    <t>Advanced Calculus 2</t>
-  </si>
-  <si>
     <t>Earth-Space Science</t>
   </si>
   <si>
@@ -134,15 +107,6 @@
     <t>Physics</t>
   </si>
   <si>
-    <t>Advanced Biology</t>
-  </si>
-  <si>
-    <t>Advanced Chemistry</t>
-  </si>
-  <si>
-    <t>Advanced Environmental Science</t>
-  </si>
-  <si>
     <t>Geography</t>
   </si>
   <si>
@@ -200,9 +164,6 @@
     <t>Modern Studies</t>
   </si>
   <si>
-    <t>Advanced Introductory Law</t>
-  </si>
-  <si>
     <t>Advanced Cultural Studies</t>
   </si>
   <si>
@@ -218,27 +179,15 @@
     <t>Junior App Development</t>
   </si>
   <si>
-    <t>Junior Web Development</t>
-  </si>
-  <si>
     <t>Media Technology</t>
   </si>
   <si>
-    <t>Video Game Development</t>
-  </si>
-  <si>
     <t>Advanced Computer Science 1</t>
   </si>
   <si>
     <t>Advanced Computer Science 2</t>
   </si>
   <si>
-    <t>Advanced Physics 2</t>
-  </si>
-  <si>
-    <t>Advanced Physics 1</t>
-  </si>
-  <si>
     <t>Advanced Physics 3</t>
   </si>
   <si>
@@ -338,15 +287,9 @@
     <t>Advanced Accounting</t>
   </si>
   <si>
-    <t>Advanced Research and Proposal</t>
-  </si>
-  <si>
     <t>Autobody Shop</t>
   </si>
   <si>
-    <t>Agriculutre</t>
-  </si>
-  <si>
     <t>Construction</t>
   </si>
   <si>
@@ -399,13 +342,208 @@
   </si>
   <si>
     <t>Palician</t>
+  </si>
+  <si>
+    <t>1,4,6</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>1,3,4</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>3,4,5</t>
+  </si>
+  <si>
+    <t>1,3,5</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>1,5,6</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>2,3,6</t>
+  </si>
+  <si>
+    <t>3,6</t>
+  </si>
+  <si>
+    <t>1,4,5</t>
+  </si>
+  <si>
+    <t>1,3,6</t>
+  </si>
+  <si>
+    <t>Advanced Calculus 1 (2 P)</t>
+  </si>
+  <si>
+    <t>Advanced Calculus 2 (2 P)</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>Advanced Biology (2 P)</t>
+  </si>
+  <si>
+    <t>Advanced Chemistry (2 P)</t>
+  </si>
+  <si>
+    <t>Advanced Environmental Science (2 P)</t>
+  </si>
+  <si>
+    <t>4,5,6</t>
+  </si>
+  <si>
+    <t>Advanced Physics 1 (2 P)</t>
+  </si>
+  <si>
+    <t>Advanced Physics 2 (2 P)</t>
+  </si>
+  <si>
+    <t>2,3,5</t>
+  </si>
+  <si>
+    <t>2,4,5</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>1,2,6</t>
+  </si>
+  <si>
+    <t>1,2,5</t>
+  </si>
+  <si>
+    <t>Advanced Introductory Law (2 P)</t>
+  </si>
+  <si>
+    <t>2,5,6</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>3,4,6</t>
+  </si>
+  <si>
+    <t>2,6</t>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>Aviran 1</t>
+  </si>
+  <si>
+    <t>Aviran 2</t>
+  </si>
+  <si>
+    <t>Aviran 3</t>
+  </si>
+  <si>
+    <t>Aviran 4</t>
+  </si>
+  <si>
+    <t>Advanced Aviran Language</t>
+  </si>
+  <si>
+    <t>Advanced Aviran Literature</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>Advanced Research and Proposal (2 P)</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>Aviran (English basically)</t>
+  </si>
+  <si>
+    <t>Schedule Template:</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>1st Period</t>
+  </si>
+  <si>
+    <t>2nd Period</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Dismissal</t>
+  </si>
+  <si>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t>4th Period</t>
+  </si>
+  <si>
+    <t>5th Period</t>
+  </si>
+  <si>
+    <t>6th Period</t>
+  </si>
+  <si>
+    <t>3rd Period</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,13 +551,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -434,13 +617,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,524 +977,1206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13752618-2887-49A7-AE4A-1777618CF6EF}">
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="5" max="11" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="34.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="E1" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.3125</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>0</v>
       </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
         <v>1</v>
       </c>
-      <c r="P2" t="s">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
         <v>1</v>
       </c>
-      <c r="S2" t="s">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>60</v>
+      </c>
+      <c r="B77" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>65</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>0</v>
       </c>
-      <c r="T2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
         <v>1</v>
       </c>
-      <c r="V2" t="s">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>67</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>71</v>
+      </c>
+      <c r="B90" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>72</v>
+      </c>
+      <c r="B91" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>75</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>74</v>
+      </c>
+      <c r="B94" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" t="s">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>77</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>79</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>78</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>80</v>
+      </c>
+      <c r="B102" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>82</v>
+      </c>
+      <c r="B104" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>145</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" t="s">
         <v>1</v>
       </c>
-      <c r="AB2" t="s">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>83</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>146</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>84</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>85</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>86</v>
+      </c>
+      <c r="B112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>89</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>90</v>
+      </c>
+      <c r="B114" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>91</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>92</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>94</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>96</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>97</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>98</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>99</v>
+      </c>
+      <c r="B124" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>100</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>101</v>
+      </c>
+      <c r="B126" s="1">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" t="s">
-        <v>57</v>
-      </c>
-      <c r="S3" t="s">
-        <v>71</v>
-      </c>
-      <c r="V3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" t="s">
-        <v>58</v>
-      </c>
-      <c r="S4" t="s">
-        <v>72</v>
-      </c>
-      <c r="V4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" t="s">
-        <v>59</v>
-      </c>
-      <c r="S5" t="s">
-        <v>73</v>
-      </c>
-      <c r="V5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y5" t="s">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>95</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="B127" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AE5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" t="s">
-        <v>60</v>
-      </c>
-      <c r="S6" t="s">
-        <v>74</v>
-      </c>
-      <c r="V6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P7" t="s">
-        <v>61</v>
-      </c>
-      <c r="S7" t="s">
-        <v>75</v>
-      </c>
-      <c r="V7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" t="s">
-        <v>62</v>
-      </c>
-      <c r="S8" t="s">
-        <v>76</v>
-      </c>
-      <c r="V8" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S9" t="s">
-        <v>77</v>
-      </c>
-      <c r="V9" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" t="s">
-        <v>69</v>
-      </c>
-      <c r="S10" t="s">
-        <v>78</v>
-      </c>
-      <c r="V10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" t="s">
-        <v>70</v>
-      </c>
-      <c r="S11" t="s">
-        <v>79</v>
-      </c>
-      <c r="V11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" t="s">
-        <v>42</v>
-      </c>
-      <c r="P12" t="s">
-        <v>63</v>
-      </c>
-      <c r="S12" t="s">
-        <v>80</v>
-      </c>
-      <c r="V12" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" t="s">
-        <v>43</v>
-      </c>
-      <c r="P13" t="s">
-        <v>64</v>
-      </c>
-      <c r="S13" t="s">
-        <v>81</v>
-      </c>
-      <c r="V13" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="J15" t="s">
-        <v>55</v>
-      </c>
-      <c r="S15" t="s">
-        <v>83</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AB1:AD1"/>
+  <mergeCells count="13">
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E1:K2"/>
+    <mergeCell ref="I4:K8"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A58:C58"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="46" fitToHeight="2" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="57" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>